--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T06:57:07+00:00</t>
+    <t>2023-02-21T14:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:16:30+00:00</t>
+    <t>2023-02-22T07:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
+++ b/branches/hiv-recency-test-resource--FIG-55/StructureDefinition-hiv-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T07:24:35+00:00</t>
+    <t>2023-02-22T11:00:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
